--- a/biology/Zoologie/Belidae/Belidae.xlsx
+++ b/biology/Zoologie/Belidae/Belidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Belidae est une famille d'insectes de l'ordre des coléoptères [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belidae est une famille d'insectes de l'ordre des coléoptères .
 C'est une famille primitive de coléoptères ayant des antennes droites alors qu'elles sont coudées dans les familles plus évoluées.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Belidae d'aujourd'hui ont une distribution essentiellement dans l'ancien Gondwana, en Australie-Nouvelle-Guinée-Nouvelle-Zélande jusqu'en Asie du Sud,  Amérique du Sud et centrale (atteignant à peine l'Amérique du Nord), certaines îles du Pacifique (notamment les îles Hawaii) et quelques zones en Afrique. De nombreuses lignées sont remarquables pour leur répartition très relictuelles ; par exemple les Aglycyderini se trouvent dans deux zones sur les côtés opposés de la Terre, sans trouver trace de ces coléoptères dans l'intervalle.
 Les Belidae étaient plus répandues au cours de la fin du Jurassique et au Crétacé inférieur, il y a environ 161-100 millions d'années, quand on pouvait en trouver au moins en Asie centrale, en Espagne et au Brésil. 
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Famille Belidae Schoenherr, 1826
 Sous-famille Belinae Schoenherr, 1826 (150 espèces)
